--- a/data/microservice-recruit/pf-message_structure.xlsx
+++ b/data/microservice-recruit/pf-message_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="242">
   <si>
     <t>Class Name</t>
   </si>
@@ -540,36 +540,36 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>nickname</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>firstId</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>firstId</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
@@ -585,39 +585,39 @@
     <t>NEED_LOGIN</t>
   </si>
   <si>
+    <t>UNKNOW_ERROR</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>UNKNOW_ERROR</t>
-  </si>
-  <si>
-    <t>msg</t>
+    <t>fromId</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
   <si>
     <t>readState</t>
   </si>
   <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>title</t>
+    <t>toId</t>
   </si>
   <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>fromId</t>
-  </si>
-  <si>
-    <t>toId</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -717,13 +717,19 @@
     <t>23</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>0</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>114</t>
@@ -738,10 +744,10 @@
     <t>9</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>42</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -4818,7 +4824,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4851,7 +4857,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>231</v>
@@ -4859,13 +4865,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -4873,7 +4879,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>229</v>
@@ -4884,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>229</v>
@@ -4895,7 +4901,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>229</v>
@@ -4906,7 +4912,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>229</v>
@@ -4917,7 +4923,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>229</v>
@@ -4928,7 +4934,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>229</v>
@@ -4939,7 +4945,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>229</v>
@@ -4950,7 +4956,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>229</v>
@@ -4961,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>229</v>
@@ -4972,7 +4978,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>229</v>
@@ -4983,7 +4989,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>229</v>
@@ -4994,7 +5000,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>229</v>
@@ -5005,7 +5011,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>229</v>
@@ -5016,7 +5022,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>229</v>
@@ -5027,7 +5033,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>229</v>
@@ -5038,7 +5044,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>229</v>
@@ -5049,7 +5055,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>229</v>
@@ -5060,7 +5066,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>229</v>
@@ -5071,7 +5077,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>229</v>
@@ -5082,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -5093,10 +5099,10 @@
         <v>30</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -5104,10 +5110,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -5115,18 +5121,18 @@
         <v>30</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>229</v>
@@ -5134,57 +5140,57 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
@@ -5192,73 +5198,73 @@
         <v>160</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>229</v>
@@ -5266,43 +5272,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>229</v>
@@ -5310,10 +5316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>229</v>
@@ -5324,7 +5330,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>229</v>
@@ -5335,7 +5341,7 @@
         <v>92</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>229</v>
@@ -5346,7 +5352,7 @@
         <v>92</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>229</v>
@@ -5357,7 +5363,7 @@
         <v>92</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>229</v>
@@ -5368,7 +5374,7 @@
         <v>92</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>229</v>
@@ -5379,7 +5385,7 @@
         <v>92</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>229</v>
@@ -5390,7 +5396,7 @@
         <v>92</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>229</v>
@@ -5401,7 +5407,7 @@
         <v>92</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>229</v>
@@ -5412,7 +5418,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>229</v>
@@ -5423,10 +5429,10 @@
         <v>92</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56">
@@ -5434,7 +5440,7 @@
         <v>92</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>229</v>
@@ -5445,10 +5451,10 @@
         <v>92</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58">
@@ -5456,7 +5462,7 @@
         <v>92</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>229</v>
@@ -5464,10 +5470,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>229</v>
@@ -5475,10 +5481,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>229</v>
@@ -5486,10 +5492,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>229</v>
@@ -5497,54 +5503,54 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>229</v>
@@ -5552,21 +5558,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>229</v>
@@ -5574,10 +5580,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>229</v>
@@ -5585,10 +5591,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>229</v>
@@ -5596,10 +5602,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>229</v>
@@ -5607,21 +5613,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>229</v>
@@ -5629,21 +5635,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>229</v>
@@ -5651,24 +5657,24 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78">
@@ -5676,10 +5682,10 @@
         <v>29</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79">
@@ -5687,10 +5693,10 @@
         <v>29</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80">
@@ -5698,10 +5704,10 @@
         <v>29</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81">
@@ -5709,10 +5715,10 @@
         <v>29</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82">
@@ -5720,7 +5726,7 @@
         <v>29</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>229</v>
@@ -5731,10 +5737,10 @@
         <v>29</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84">
@@ -5742,7 +5748,7 @@
         <v>29</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>229</v>
@@ -5750,76 +5756,76 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>229</v>
@@ -5827,10 +5833,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>229</v>
@@ -5838,10 +5844,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>229</v>
@@ -5849,10 +5855,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>229</v>
@@ -5860,43 +5866,43 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>229</v>
@@ -5904,79 +5910,288 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B105" t="s" s="0">
+      <c r="B115" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B122" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C105" t="s" s="0">
+      <c r="C122" t="s" s="0">
         <v>229</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6497,7 @@
         <v>81</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -6324,7 +6539,7 @@
         <v>81</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -6380,7 +6595,7 @@
         <v>81</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -6394,7 +6609,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -6416,13 +6631,13 @@
         <v>56</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -6430,13 +6645,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>33</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
@@ -6444,13 +6659,13 @@
         <v>56</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>60</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>7</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -6458,13 +6673,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -6528,13 +6743,13 @@
         <v>76</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -6542,7 +6757,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -6556,13 +6771,13 @@
         <v>76</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -6573,10 +6788,10 @@
         <v>189</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -6590,7 +6805,7 @@
         <v>81</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -6604,7 +6819,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -6646,7 +6861,7 @@
         <v>81</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -6654,7 +6869,7 @@
         <v>92</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>81</v>
@@ -6668,13 +6883,13 @@
         <v>92</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6897,13 @@
         <v>92</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -6696,13 +6911,13 @@
         <v>92</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -6710,7 +6925,7 @@
         <v>111</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>81</v>
@@ -6724,7 +6939,7 @@
         <v>111</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>81</v>
@@ -6738,13 +6953,13 @@
         <v>29</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -6752,13 +6967,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -6766,7 +6981,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>81</v>
@@ -6780,13 +6995,13 @@
         <v>29</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -6822,7 +7037,7 @@
         <v>152</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>81</v>
